--- a/biology/Botanique/Lemnaceae/Lemnaceae.xlsx
+++ b/biology/Botanique/Lemnaceae/Lemnaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lemnaceae sont une famille de petites plantes qui comprend 30 espèces réparties en cinq genres. 
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique Lemna vient du nom grec qui désignait ce type de plantes. Le nom peut venir du grec λεπίς / lepis, « écaille »[1] ou de λίμνη / limné, « lac ; étang »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique Lemna vient du nom grec qui désignait ce type de plantes. Le nom peut venir du grec λεπίς / lepis, « écaille » ou de λίμνη / limné, « lac ; étang ».
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En classification phylogénétique, cette famille n'existe plus et ses genres sont incorporés dans la famille des Araceae.
 </t>
@@ -573,7 +589,9 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes aquatiques, flottantes, des eaux calmes d'une grande partie du monde. 
 L'appareil végétatif est réduit à des frondes lenticulaires (de nature caulinaire malgré leur aspect laminaire), avec chez certaines espèces quelques racines filiformes à la face inférieure. 
@@ -607,7 +625,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Landoltia Les &amp; D.J.Crawford
 Lemna L. - Les lentilles d'eau ou lenticules
